--- a/biology/Écologie/Corridor_biologique_fluvial/Corridor_biologique_fluvial.xlsx
+++ b/biology/Écologie/Corridor_biologique_fluvial/Corridor_biologique_fluvial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle corridor biologique fluvial le continuum écologique constitué par un cours d'eau et ses affluents, considérés des sources des affluents jusqu'à la mer, ainsi que leurs abords proches (berge, ripisylve, zone hyporhéique) ou élargis (vallée fluviale).
 Ce concept découle de celui de continuum écologique (écologie du paysage) et pour partie de celui de continuum fluvial. L'ensemble ou réseau de ces corridors constitue ce qu'on appelle souvent la Trame bleue (notamment en France depuis le Grenelle de l'environnement). Bien que dénommé fluvial, il intègre toute la continuité, de la source à la mer, ainsi que les « compartiments sous-fluviaux » et autres annexes connectées au cours d'eau.
@@ -514,7 +526,9 @@
           <t>Espèces dépendantes des continuums fluviaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreuses espèces aquatiques d'eau douce sont migratrices, ou dépendent de ces corridors.
 Les espèces strictement aquatiques semblent le plus en dépendre, car ne se déplaçant que sous l'eau (activement, c'est-à-dire en nageant, ou passivement portées par le courant).
@@ -549,7 +563,9 @@
           <t>Qualité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs facteurs (via des indicateurs biogéographiques (dont indicateur biologique) sont généralement retenus pour juger de la qualité de ces corridors :
 naturalité ;
@@ -582,7 +598,9 @@
           <t>Types de corridors fluviaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'écologue considère plusieurs types de corridors (dont l'ensemble forme une zone de connexion biologique).  
 Le corridor subaquatique proprement dit : c'est celui utilisé par les poissons et les organismes totalement aquatiques.
@@ -616,7 +634,9 @@
           <t>Limites et cartographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les limites du corridor fluvial ne sont pas toujours faciles à définir, et posent des problèmes non encore résolus pour la cartographie des corridors biologiques (ceci vaut pour tous les types de corridors). Par exemple, certains fleuves de plaines, encore « sauvages », non endigués, peuvent se déplacer latéralement dans leur lit, et provisoirement inonder de vastes zones. 
 De même, certaines espèces telles l'anguille peuvent quitter un cours d'eau en rampant sur le sol pour rejoindre des mares et étangs qui n'y sont pas directement connectés. 
@@ -651,7 +671,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses activités humaines peuvent perturber la fonction de corridors des fleuves, dont la dérivation de l'eau pour l'irrigation (souvent associée à un drainage qui laisse repartir des nitrates et pesticides vers l'aval du fleuve), le pompage d'eau potable (souvent associé à la construction de barrages-réservoirs, mais le pompage des eaux souterraines peut aussi contribuer à faire baisser le plafond de la nappe phréatique, et donc le niveau des sources, et le niveau de l'eau là où le fleuve est alimenté par la nappe.  
 Les modifications climatiques et le réchauffement climatique risquent d'exacerber l'occurrence et l'intensité des sécheresses qui se traduisent par un manque d'eau (et donc une pollution plus toxique car moins diluée) voire des mises à sec en période d'étiage.
@@ -683,7 +705,9 @@
           <t>Dans le monde</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux projets de restauration nationales ou transfrontalières de fleuves incluent un volet biodiversité et continuum écologique.
 </t>
@@ -714,7 +738,9 @@
           <t>En Europe</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Des conventions s'appliquent sur la Meuse et le Rhin, qui peuvent inclure ces aspects. Une association Escaut-Vivant promeut le développement durable et les corridors biologiques sur tout le bassin versant de se fleuve.
 La directive cadre sur l'eau encourage ce type de travail.
@@ -746,7 +772,9 @@
           <t>Exemple de barrières écologiques possibles</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Peuvent être sources de fragmentation écologique des espaces sous-marins :
 séquelles de guerre de type munitions enfouies dans les sédiments ;
@@ -786,11 +814,13 @@
           <t>Protection foncière et juridique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle semble émerger avec le droit de l'environnement, et le devoir de « prise en compte » de la trame bleue en France par les documents d'urbanisme (SCOT, PLU). La Directive cadre sur l'eau et localement Natura 2000 peuvent en Europe contribuer à la protection de segments de cours d'eau. Certains traités transfrontaliers encouragent le respect d'une continuité écologique sur de grands fleuves, mais c'est souvent la libre circulation des marchandises qui était l'objet principal de ces documents.
-En France, certains juristes estiment que les outils juridiques existant comme les SDAGE, SAGE et plus récemment la trame bleue (déclinée dans les SRCE à échelle régionale, mais pas encore précisément à échelle locale) ou certains moyens de protéger certains éléments du paysage (réserves naturelles, parcs nationaux…), ou encore des zones d'expansion de crues (pour lutter contre les inondations) concourent donc à protéger et restaurer les corridors fluviaux mais « ne sont pas dotés d'une force juridique contraignante suffisante »[1]. (La loi n'impose qu'un « rapport de compatibilité, voire le plus souvent dans un simple rapport de prise en compte » et les plans fluviaux encouragent des approches plus globales, mais sans pouvoir juridique contraignant.
-Aude Farinetti (juriste et chercheuse universitaire[2]) estime nécessaire un outil juridique plus contraignant, et à l'« échelle d'un territoire pertinent : celui des corridors fluviaux et pas seulement le cours d'eau - qui est le territoire sur lequel porte l'essentiel des outils de protection ». Elle « préconise une loi de protection des corridors fluviaux sur le modèle des lois Montagne et Littoral ».
+En France, certains juristes estiment que les outils juridiques existant comme les SDAGE, SAGE et plus récemment la trame bleue (déclinée dans les SRCE à échelle régionale, mais pas encore précisément à échelle locale) ou certains moyens de protéger certains éléments du paysage (réserves naturelles, parcs nationaux…), ou encore des zones d'expansion de crues (pour lutter contre les inondations) concourent donc à protéger et restaurer les corridors fluviaux mais « ne sont pas dotés d'une force juridique contraignante suffisante ». (La loi n'impose qu'un « rapport de compatibilité, voire le plus souvent dans un simple rapport de prise en compte » et les plans fluviaux encouragent des approches plus globales, mais sans pouvoir juridique contraignant.
+Aude Farinetti (juriste et chercheuse universitaire) estime nécessaire un outil juridique plus contraignant, et à l'« échelle d'un territoire pertinent : celui des corridors fluviaux et pas seulement le cours d'eau - qui est le territoire sur lequel porte l'essentiel des outils de protection ». Elle « préconise une loi de protection des corridors fluviaux sur le modèle des lois Montagne et Littoral ».
 </t>
         </is>
       </c>
